--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -71,25 +71,25 @@
     <t>CA4-U3</t>
   </si>
   <si>
-    <t>PA-1</t>
+    <t>PA1</t>
   </si>
   <si>
     <t>PBS treatment Mock</t>
   </si>
   <si>
-    <t>PA-2</t>
-  </si>
-  <si>
-    <t>PA-3</t>
-  </si>
-  <si>
-    <t>PU-1</t>
-  </si>
-  <si>
-    <t>PU-2</t>
-  </si>
-  <si>
-    <t>PU-3</t>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PU1</t>
+  </si>
+  <si>
+    <t>PU2</t>
+  </si>
+  <si>
+    <t>PU3</t>
   </si>
 </sst>
 </file>
@@ -723,15 +723,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1053,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1087,13 +1084,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
@@ -1104,13 +1101,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1">
@@ -1121,13 +1118,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1">
@@ -1138,13 +1135,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1">
@@ -1155,13 +1152,13 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
@@ -1172,13 +1169,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1">
@@ -1189,13 +1186,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
@@ -1206,13 +1203,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1">
@@ -1223,13 +1220,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1">
@@ -1240,13 +1237,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1">
@@ -1257,13 +1254,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1">
@@ -1274,13 +1271,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1">
